--- a/jetson_tldr.xlsx
+++ b/jetson_tldr.xlsx
@@ -571,7 +571,9 @@
           <t>15W - 40W</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -987,9 +989,7 @@
           <t>7.5W - 15W</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>199</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1041,7 +1041,9 @@
           <t>7.5W - 15W</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">

--- a/jetson_tldr.xlsx
+++ b/jetson_tldr.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>275 TFLOPS</t>
+          <t>275 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>275 TFLOPS</t>
+          <t>275 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>248 TFLOPS</t>
+          <t>248 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>200 TFLOPS</t>
+          <t>200 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>157 TFLOPS</t>
+          <t>157 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>117 TFLOPS</t>
+          <t>117 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>67 TFLOPS</t>
+          <t>67 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>67 TFLOPS</t>
+          <t>67 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34 TFLOPS</t>
+          <t>34 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30 TFLOPS</t>
+          <t>30 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>32 TFLOPS</t>
+          <t>32 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>32 TFLOPS</t>
+          <t>32 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21 TFLOPS</t>
+          <t>21 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21 TFLOPS</t>
+          <t>21 TOPS (INT8-Sparse)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.26 TFLOPS</t>
+          <t>1.26 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.33 TFLOPS</t>
+          <t>1.33 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.33 TFLOPS</t>
+          <t>1.33 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.33 TFLOPS</t>
+          <t>1.33 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>472 GFLOPS</t>
+          <t>0.472 TFLOPS (FP16-Dense)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
